--- a/DataBases/Prices_Fuels/Reference_AEO_2019/Proyecciones_Precios_Referencia.xlsx
+++ b/DataBases/Prices_Fuels/Reference_AEO_2019/Proyecciones_Precios_Referencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\DataBases\Prices_Fuels\Reference_AEO_2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC3E1E9-D020-4F94-BF57-7E7C523AC49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5740B5D8-941C-4F87-A9E6-46153E0DCAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3615" yWindow="2955" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidado" sheetId="1" r:id="rId1"/>
@@ -5353,7 +5353,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -5637,7 +5637,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -5687,17 +5687,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5705,7 +5696,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5720,7 +5710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -5738,6 +5728,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -39297,8 +39296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12BFF27-2D42-47A8-8EBC-369F44A62FBA}">
   <dimension ref="C1:U42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5:T36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39337,25 +39336,25 @@
       </c>
     </row>
     <row r="3" spans="3:21" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="48" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="31"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="50"/>
       <c r="P3" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="4" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="29" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="14" t="s">
@@ -39385,7 +39384,7 @@
       <c r="L4" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="30" t="s">
         <v>402</v>
       </c>
       <c r="O4" s="27" t="s">
@@ -39394,15 +39393,15 @@
       <c r="P4" s="27" t="s">
         <v>1727</v>
       </c>
-      <c r="R4" s="46" t="s">
+      <c r="R4" s="42" t="s">
         <v>1734</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="S4" s="43" t="s">
         <v>1726</v>
       </c>
     </row>
     <row r="5" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C5" s="34">
+      <c r="C5" s="31">
         <v>2019</v>
       </c>
       <c r="D5" s="19">
@@ -39423,16 +39422,16 @@
       <c r="I5" s="19">
         <v>9.7503069999999994</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J5">
         <v>9.9389069659747591</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K5">
         <v>16.336877005347596</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L5">
         <v>28.503195372270948</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M5" s="32">
         <v>30.454449</v>
       </c>
       <c r="O5">
@@ -39440,16 +39439,16 @@
         <v>28.865244487832999</v>
       </c>
       <c r="P5" s="24"/>
-      <c r="R5" s="50">
+      <c r="R5" s="46">
         <f>+R6*(100%-S6)</f>
         <v>22.631883642110068</v>
       </c>
-      <c r="T5" s="51">
-        <v>22.631883642110068</v>
+      <c r="T5" s="47">
+        <v>22.6318836421101</v>
       </c>
     </row>
     <row r="6" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C6" s="37">
+      <c r="C6" s="33">
         <v>2020</v>
       </c>
       <c r="D6" s="17">
@@ -39470,16 +39469,16 @@
       <c r="I6" s="17">
         <v>10.19247</v>
       </c>
-      <c r="J6" s="35">
+      <c r="J6">
         <v>9.3869901772428523</v>
       </c>
-      <c r="K6" s="35">
+      <c r="K6">
         <v>15.906911905432029</v>
       </c>
-      <c r="L6" s="35">
+      <c r="L6">
         <v>27.56843519236628</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="34">
         <v>29.931808</v>
       </c>
       <c r="O6">
@@ -39490,21 +39489,21 @@
         <f>+(O6-O5)/O5</f>
         <v>-1.716140062163006E-2</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="44">
         <f>+T40</f>
         <v>22.339540412044375</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="45">
         <f>+(E6-$E$5)/$E$5</f>
         <v>-1.3086358298941378E-2</v>
       </c>
-      <c r="T6" s="51">
+      <c r="T6" s="47">
         <v>22.339540412044375</v>
       </c>
-      <c r="U6" s="43"/>
+      <c r="U6" s="39"/>
     </row>
     <row r="7" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C7" s="34">
+      <c r="C7" s="31">
         <v>2021</v>
       </c>
       <c r="D7" s="19">
@@ -39525,16 +39524,16 @@
       <c r="I7" s="19">
         <v>10.271381</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7">
         <v>10.287079260646848</v>
       </c>
-      <c r="K7" s="35">
+      <c r="K7">
         <v>16.583545735997749</v>
       </c>
-      <c r="L7" s="35">
+      <c r="L7">
         <v>27.536108011323876</v>
       </c>
-      <c r="M7" s="36">
+      <c r="M7" s="32">
         <v>29.732624000000001</v>
       </c>
       <c r="O7">
@@ -39545,20 +39544,20 @@
         <f t="shared" ref="P7:P36" si="0">+(O7-O6)/O6</f>
         <v>-6.6545930001955219E-3</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="40">
         <f>+$R$6*(100%+S7)</f>
         <v>22.078422999593137</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="45">
         <f>+(E7-$E$5)/$E$5</f>
         <v>-1.1688575845117052E-2</v>
       </c>
-      <c r="T7" s="51">
+      <c r="T7" s="47">
         <v>22.078422999593137</v>
       </c>
     </row>
     <row r="8" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C8" s="37">
+      <c r="C8" s="33">
         <v>2022</v>
       </c>
       <c r="D8" s="17">
@@ -39579,40 +39578,40 @@
       <c r="I8" s="17">
         <v>10.173702</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8">
         <v>10.535673289409495</v>
       </c>
-      <c r="K8" s="35">
+      <c r="K8">
         <v>17.425744441317196</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8">
         <v>27.797248052403248</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="34">
         <v>29.657565999999999</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O6:O36" si="1">+M8*$G$2/1000000</f>
+        <f t="shared" ref="O8:O36" si="1">+M8*$G$2/1000000</f>
         <v>28.109945233422</v>
       </c>
       <c r="P8" s="25">
         <f t="shared" si="0"/>
         <v>-2.5244324214372216E-3</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="40">
         <f t="shared" ref="R8:R36" si="2">+$R$6*(100%+S8)</f>
         <v>22.39579265822039</v>
       </c>
-      <c r="S8" s="49">
+      <c r="S8" s="45">
         <f>+(E8-$E$5)/$E$5</f>
         <v>2.5180574505322892E-3</v>
       </c>
-      <c r="T8" s="51">
+      <c r="T8" s="47">
         <v>22.39579265822039</v>
       </c>
     </row>
     <row r="9" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C9" s="34">
+      <c r="C9" s="31">
         <v>2023</v>
       </c>
       <c r="D9" s="19">
@@ -39633,16 +39632,16 @@
       <c r="I9" s="19">
         <v>9.1834290000000003</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9">
         <v>10.74174170797278</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9">
         <v>17.265841823810863</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9">
         <v>27.794152965511518</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="32">
         <v>29.663188999999999</v>
       </c>
       <c r="O9">
@@ -39653,20 +39652,20 @@
         <f t="shared" si="0"/>
         <v>1.8959748753483098E-4</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="40">
         <f t="shared" si="2"/>
         <v>22.558159280737229</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="45">
         <f>+(E9-$E$5)/$E$5</f>
         <v>9.7861847048107999E-3</v>
       </c>
-      <c r="T9" s="51">
+      <c r="T9" s="47">
         <v>22.558159280737229</v>
       </c>
     </row>
     <row r="10" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C10" s="37">
+      <c r="C10" s="33">
         <v>2024</v>
       </c>
       <c r="D10" s="17">
@@ -39687,16 +39686,16 @@
       <c r="I10" s="17">
         <v>9.5545159999999996</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10">
         <v>11.129993971580372</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10">
         <v>17.183804109203489</v>
       </c>
-      <c r="L10" s="35">
+      <c r="L10">
         <v>28.132498301407413</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="34">
         <v>29.849364999999999</v>
       </c>
       <c r="O10">
@@ -39707,20 +39706,20 @@
         <f t="shared" si="0"/>
         <v>6.2763312467853122E-3</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="40">
         <f t="shared" si="2"/>
         <v>23.164899880511875</v>
       </c>
-      <c r="S10" s="49">
-        <f t="shared" ref="S7:S36" si="3">+(E10-$E$5)/$E$5</f>
+      <c r="S10" s="45">
+        <f t="shared" ref="S10:S36" si="3">+(E10-$E$5)/$E$5</f>
         <v>3.6946125714498117E-2</v>
       </c>
-      <c r="T10" s="51">
+      <c r="T10" s="47">
         <v>23.164899880511875</v>
       </c>
     </row>
     <row r="11" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C11" s="34">
+      <c r="C11" s="31">
         <v>2025</v>
       </c>
       <c r="D11" s="19">
@@ -39741,16 +39740,16 @@
       <c r="I11" s="19">
         <v>9.8769209999999994</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11">
         <v>11.404622491095539</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11">
         <v>17.76969997185477</v>
       </c>
-      <c r="L11" s="35">
+      <c r="L11">
         <v>28.129124075155097</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="32">
         <v>30.250845000000002</v>
       </c>
       <c r="O11">
@@ -39761,20 +39760,20 @@
         <f t="shared" si="0"/>
         <v>1.3450202374489505E-2</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="40">
         <f t="shared" si="2"/>
         <v>23.275210249935512</v>
       </c>
-      <c r="S11" s="49">
+      <c r="S11" s="45">
         <f t="shared" si="3"/>
         <v>4.1884023602682056E-2</v>
       </c>
-      <c r="T11" s="51">
+      <c r="T11" s="47">
         <v>23.275210249935512</v>
       </c>
     </row>
     <row r="12" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C12" s="37">
+      <c r="C12" s="33">
         <v>2026</v>
       </c>
       <c r="D12" s="17">
@@ -39795,16 +39794,16 @@
       <c r="I12" s="17">
         <v>10.457724000000001</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12">
         <v>11.693615001593368</v>
       </c>
-      <c r="K12" s="35">
+      <c r="K12">
         <v>17.949379116239797</v>
       </c>
-      <c r="L12" s="35">
+      <c r="L12">
         <v>28.646918542866576</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="34">
         <v>30.593702</v>
       </c>
       <c r="O12">
@@ -39815,20 +39814,20 @@
         <f t="shared" si="0"/>
         <v>1.1333799105446419E-2</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="40">
         <f t="shared" si="2"/>
         <v>23.971296511876403</v>
       </c>
-      <c r="S12" s="49">
+      <c r="S12" s="45">
         <f t="shared" si="3"/>
         <v>7.304340508958107E-2</v>
       </c>
-      <c r="T12" s="51">
+      <c r="T12" s="47">
         <v>23.971296511876403</v>
       </c>
     </row>
     <row r="13" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C13" s="34">
+      <c r="C13" s="31">
         <v>2027</v>
       </c>
       <c r="D13" s="19">
@@ -39849,16 +39848,16 @@
       <c r="I13" s="19">
         <v>11.210336</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13">
         <v>11.97288183063062</v>
       </c>
-      <c r="K13" s="35">
+      <c r="K13">
         <v>18.489267661131436</v>
       </c>
-      <c r="L13" s="35">
+      <c r="L13">
         <v>28.709563360017508</v>
       </c>
-      <c r="M13" s="36">
+      <c r="M13" s="32">
         <v>30.753353000000001</v>
       </c>
       <c r="O13">
@@ -39869,20 +39868,20 @@
         <f t="shared" si="0"/>
         <v>5.218426982128559E-3</v>
       </c>
-      <c r="R13" s="44">
+      <c r="R13" s="40">
         <f t="shared" si="2"/>
         <v>24.015638240959891</v>
       </c>
-      <c r="S13" s="49">
+      <c r="S13" s="45">
         <f t="shared" si="3"/>
         <v>7.5028303984796679E-2</v>
       </c>
-      <c r="T13" s="51">
+      <c r="T13" s="47">
         <v>24.015638240959891</v>
       </c>
     </row>
     <row r="14" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C14" s="37">
+      <c r="C14" s="33">
         <v>2028</v>
       </c>
       <c r="D14" s="17">
@@ -39903,16 +39902,16 @@
       <c r="I14" s="17">
         <v>11.536975999999999</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14">
         <v>12.106750658115047</v>
       </c>
-      <c r="K14" s="35">
+      <c r="K14">
         <v>19.181316070925977</v>
       </c>
-      <c r="L14" s="35">
+      <c r="L14">
         <v>29.154180668963214</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="34">
         <v>30.631550000000001</v>
       </c>
       <c r="O14">
@@ -39923,20 +39922,20 @@
         <f t="shared" si="0"/>
         <v>-3.9606412998282985E-3</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="40">
         <f t="shared" si="2"/>
         <v>24.740571573891199</v>
       </c>
-      <c r="S14" s="49">
+      <c r="S14" s="45">
         <f t="shared" si="3"/>
         <v>0.10747898647692425</v>
       </c>
-      <c r="T14" s="51">
+      <c r="T14" s="47">
         <v>24.740571573891199</v>
       </c>
     </row>
     <row r="15" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="34">
+      <c r="C15" s="31">
         <v>2029</v>
       </c>
       <c r="D15" s="19">
@@ -39957,16 +39956,16 @@
       <c r="I15" s="19">
         <v>11.842731000000001</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15">
         <v>12.377995487022886</v>
       </c>
-      <c r="K15" s="35">
+      <c r="K15">
         <v>19.59553560371517</v>
       </c>
-      <c r="L15" s="35">
+      <c r="L15">
         <v>29.421805530928889</v>
       </c>
-      <c r="M15" s="36">
+      <c r="M15" s="32">
         <v>30.452465</v>
       </c>
       <c r="O15">
@@ -39977,20 +39976,20 @@
         <f t="shared" si="0"/>
         <v>-5.8464230507434805E-3</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="40">
         <f t="shared" si="2"/>
         <v>25.062088399499931</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="45">
         <f t="shared" si="3"/>
         <v>0.1218712622211196</v>
       </c>
-      <c r="T15" s="51">
+      <c r="T15" s="47">
         <v>25.062088399499931</v>
       </c>
     </row>
     <row r="16" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C16" s="37">
+      <c r="C16" s="33">
         <v>2030</v>
       </c>
       <c r="D16" s="17">
@@ -40011,16 +40010,16 @@
       <c r="I16" s="17">
         <v>11.37082</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16">
         <v>12.602511149398413</v>
       </c>
-      <c r="K16" s="35">
+      <c r="K16">
         <v>20.679272727272728</v>
       </c>
-      <c r="L16" s="35">
+      <c r="L16">
         <v>29.90080479676578</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="34">
         <v>30.394573000000001</v>
       </c>
       <c r="O16">
@@ -40031,20 +40030,20 @@
         <f t="shared" si="0"/>
         <v>-1.901061211300982E-3</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="40">
         <f t="shared" si="2"/>
         <v>25.42744343502223</v>
       </c>
-      <c r="S16" s="49">
+      <c r="S16" s="45">
         <f t="shared" si="3"/>
         <v>0.13822589749039818</v>
       </c>
-      <c r="T16" s="51">
+      <c r="T16" s="47">
         <v>25.42744343502223</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C17" s="34">
+      <c r="C17" s="31">
         <v>2031</v>
       </c>
       <c r="D17" s="19">
@@ -40065,16 +40064,16 @@
       <c r="I17" s="19">
         <v>11.605115</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17">
         <v>12.89947849257279</v>
       </c>
-      <c r="K17" s="35">
+      <c r="K17">
         <v>20.745623979735434</v>
       </c>
-      <c r="L17" s="35">
+      <c r="L17">
         <v>30.240261520856617</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="32">
         <v>30.270491</v>
       </c>
       <c r="O17">
@@ -40085,20 +40084,20 @@
         <f t="shared" si="0"/>
         <v>-4.0823735210888312E-3</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="40">
         <f t="shared" si="2"/>
         <v>25.958460854900952</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="45">
         <f t="shared" si="3"/>
         <v>0.16199619043664085</v>
       </c>
-      <c r="T17" s="51">
+      <c r="T17" s="47">
         <v>25.958460854900952</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C18" s="37">
+      <c r="C18" s="33">
         <v>2032</v>
       </c>
       <c r="D18" s="17">
@@ -40119,16 +40118,16 @@
       <c r="I18" s="17">
         <v>11.676685000000001</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18">
         <v>13.05019617018589</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K18">
         <v>20.815344216155363</v>
       </c>
-      <c r="L18" s="35">
+      <c r="L18">
         <v>30.453645469661708</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="34">
         <v>30.131779000000002</v>
       </c>
       <c r="O18">
@@ -40139,20 +40138,20 @@
         <f t="shared" si="0"/>
         <v>-4.5824165851817093E-3</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="40">
         <f t="shared" si="2"/>
         <v>26.224834702323204</v>
       </c>
-      <c r="S18" s="49">
+      <c r="S18" s="45">
         <f t="shared" si="3"/>
         <v>0.17392006364571716</v>
       </c>
-      <c r="T18" s="51">
+      <c r="T18" s="47">
         <v>26.224834702323204</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C19" s="34">
+      <c r="C19" s="31">
         <v>2033</v>
       </c>
       <c r="D19" s="19">
@@ -40173,16 +40172,16 @@
       <c r="I19" s="19">
         <v>11.933399</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19">
         <v>13.528408425775462</v>
       </c>
-      <c r="K19" s="35">
+      <c r="K19">
         <v>20.860866873065014</v>
       </c>
-      <c r="L19" s="35">
+      <c r="L19">
         <v>30.937788136679849</v>
       </c>
-      <c r="M19" s="36">
+      <c r="M19" s="32">
         <v>30.234314000000001</v>
       </c>
       <c r="O19">
@@ -40193,20 +40192,20 @@
         <f t="shared" si="0"/>
         <v>3.4028857041597392E-3</v>
       </c>
-      <c r="R19" s="44">
+      <c r="R19" s="40">
         <f t="shared" si="2"/>
         <v>26.829697023012422</v>
       </c>
-      <c r="S19" s="49">
+      <c r="S19" s="45">
         <f t="shared" si="3"/>
         <v>0.20099592597469809</v>
       </c>
-      <c r="T19" s="51">
+      <c r="T19" s="47">
         <v>26.829697023012422</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C20" s="37">
+      <c r="C20" s="33">
         <v>2034</v>
       </c>
       <c r="D20" s="17">
@@ -40227,16 +40226,16 @@
       <c r="I20" s="17">
         <v>12.064242</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20">
         <v>13.746138157938017</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20">
         <v>20.756759358288768</v>
       </c>
-      <c r="L20" s="35">
+      <c r="L20">
         <v>31.187047954880036</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="34">
         <v>30.257355</v>
       </c>
       <c r="O20">
@@ -40247,20 +40246,20 @@
         <f t="shared" si="0"/>
         <v>7.6208112411597863E-4</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="40">
         <f t="shared" si="2"/>
         <v>27.263719866788854</v>
       </c>
-      <c r="S20" s="49">
+      <c r="S20" s="45">
         <f t="shared" si="3"/>
         <v>0.22042438492107946</v>
       </c>
-      <c r="T20" s="51">
+      <c r="T20" s="47">
         <v>27.263719866788854</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="34">
+      <c r="C21" s="31">
         <v>2035</v>
       </c>
       <c r="D21" s="19">
@@ -40281,16 +40280,16 @@
       <c r="I21" s="19">
         <v>12.697660000000001</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21">
         <v>14.018754906092827</v>
       </c>
-      <c r="K21" s="35">
+      <c r="K21">
         <v>20.835061638052352</v>
       </c>
-      <c r="L21" s="35">
+      <c r="L21">
         <v>31.472139703872259</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="32">
         <v>30.084644000000001</v>
       </c>
       <c r="O21">
@@ -40301,20 +40300,20 @@
         <f t="shared" si="0"/>
         <v>-5.7080666832906666E-3</v>
       </c>
-      <c r="R21" s="44">
+      <c r="R21" s="40">
         <f t="shared" si="2"/>
         <v>27.675778594046346</v>
       </c>
-      <c r="S21" s="49">
+      <c r="S21" s="45">
         <f t="shared" si="3"/>
         <v>0.23886964922183163</v>
       </c>
-      <c r="T21" s="51">
+      <c r="T21" s="47">
         <v>27.675778594046346</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="37">
+      <c r="C22" s="33">
         <v>2036</v>
       </c>
       <c r="D22" s="17">
@@ -40335,16 +40334,16 @@
       <c r="I22" s="17">
         <v>13.116432</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22">
         <v>14.383410900612422</v>
       </c>
-      <c r="K22" s="35">
+      <c r="K22">
         <v>20.885974669293553</v>
       </c>
-      <c r="L22" s="35">
+      <c r="L22">
         <v>31.79085740732074</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="34">
         <v>29.993071</v>
       </c>
       <c r="O22">
@@ -40355,20 +40354,20 @@
         <f t="shared" si="0"/>
         <v>-3.0438452254910849E-3</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="40">
         <f t="shared" si="2"/>
         <v>28.049205194444301</v>
       </c>
-      <c r="S22" s="49">
+      <c r="S22" s="45">
         <f t="shared" si="3"/>
         <v>0.25558559742444659</v>
       </c>
-      <c r="T22" s="51">
+      <c r="T22" s="47">
         <v>28.049205194444301</v>
       </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="34">
+      <c r="C23" s="31">
         <v>2037</v>
       </c>
       <c r="D23" s="19">
@@ -40389,16 +40388,16 @@
       <c r="I23" s="19">
         <v>13.224297</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23">
         <v>14.451363477705129</v>
       </c>
-      <c r="K23" s="35">
+      <c r="K23">
         <v>20.979112299465239</v>
       </c>
-      <c r="L23" s="35">
+      <c r="L23">
         <v>31.99811450562326</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="32">
         <v>29.893633000000001</v>
       </c>
       <c r="O23">
@@ -40409,20 +40408,20 @@
         <f t="shared" si="0"/>
         <v>-3.315365738973531E-3</v>
       </c>
-      <c r="R23" s="44">
+      <c r="R23" s="40">
         <f t="shared" si="2"/>
         <v>28.417233459014266</v>
       </c>
-      <c r="S23" s="49">
+      <c r="S23" s="45">
         <f t="shared" si="3"/>
         <v>0.27205989625879234</v>
       </c>
-      <c r="T23" s="51">
+      <c r="T23" s="47">
         <v>28.417233459014266</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C24" s="37">
+      <c r="C24" s="33">
         <v>2038</v>
       </c>
       <c r="D24" s="17">
@@ -40443,16 +40442,16 @@
       <c r="I24" s="17">
         <v>13.736769000000001</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24">
         <v>14.722348267322275</v>
       </c>
-      <c r="K24" s="35">
+      <c r="K24">
         <v>21.052343371798479</v>
       </c>
-      <c r="L24" s="35">
+      <c r="L24">
         <v>32.264737825901626</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="34">
         <v>29.942001000000001</v>
       </c>
       <c r="O24">
@@ -40463,20 +40462,20 @@
         <f t="shared" si="0"/>
         <v>1.6180034056081918E-3</v>
       </c>
-      <c r="R24" s="44">
+      <c r="R24" s="40">
         <f t="shared" si="2"/>
         <v>28.731185290548609</v>
       </c>
-      <c r="S24" s="49">
+      <c r="S24" s="45">
         <f t="shared" si="3"/>
         <v>0.28611353504202708</v>
       </c>
-      <c r="T24" s="51">
+      <c r="T24" s="47">
         <v>28.731185290548609</v>
       </c>
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C25" s="34">
+      <c r="C25" s="31">
         <v>2039</v>
       </c>
       <c r="D25" s="19">
@@ -40497,16 +40496,16 @@
       <c r="I25" s="19">
         <v>13.914393</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25">
         <v>14.97849385828558</v>
       </c>
-      <c r="K25" s="35">
+      <c r="K25">
         <v>21.330976076555025</v>
       </c>
-      <c r="L25" s="35">
+      <c r="L25">
         <v>32.551506995681095</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="32">
         <v>29.852777</v>
       </c>
       <c r="O25">
@@ -40517,20 +40516,20 @@
         <f t="shared" si="0"/>
         <v>-2.9798943631056504E-3</v>
       </c>
-      <c r="R25" s="44">
+      <c r="R25" s="40">
         <f t="shared" si="2"/>
         <v>29.153445621352176</v>
       </c>
-      <c r="S25" s="49">
+      <c r="S25" s="45">
         <f t="shared" si="3"/>
         <v>0.30501546064188856</v>
       </c>
-      <c r="T25" s="51">
+      <c r="T25" s="47">
         <v>29.153445621352176</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C26" s="37">
+      <c r="C26" s="33">
         <v>2040</v>
       </c>
       <c r="D26" s="17">
@@ -40551,16 +40550,16 @@
       <c r="I26" s="17">
         <v>14.113455</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26">
         <v>15.146069572197943</v>
       </c>
-      <c r="K26" s="35">
+      <c r="K26">
         <v>21.42243512524627</v>
       </c>
-      <c r="L26" s="35">
+      <c r="L26">
         <v>32.553225770447689</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="34">
         <v>29.694433</v>
       </c>
       <c r="O26">
@@ -40571,20 +40570,20 @@
         <f t="shared" si="0"/>
         <v>-5.3041631604322003E-3</v>
       </c>
-      <c r="R26" s="44">
+      <c r="R26" s="40">
         <f t="shared" si="2"/>
         <v>29.292522193535898</v>
       </c>
-      <c r="S26" s="49">
+      <c r="S26" s="45">
         <f t="shared" si="3"/>
         <v>0.31124103957585542</v>
       </c>
-      <c r="T26" s="51">
+      <c r="T26" s="47">
         <v>29.292522193535898</v>
       </c>
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C27" s="34">
+      <c r="C27" s="31">
         <v>2041</v>
       </c>
       <c r="D27" s="19">
@@ -40605,16 +40604,16 @@
       <c r="I27" s="19">
         <v>14.229108</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27">
         <v>15.324567642948036</v>
       </c>
-      <c r="K27" s="35">
+      <c r="K27">
         <v>21.491599774838164</v>
       </c>
-      <c r="L27" s="35">
+      <c r="L27">
         <v>32.775026546361701</v>
       </c>
-      <c r="M27" s="36">
+      <c r="M27" s="32">
         <v>29.642439</v>
       </c>
       <c r="O27">
@@ -40625,20 +40624,20 @@
         <f t="shared" si="0"/>
         <v>-1.7509679339559479E-3</v>
       </c>
-      <c r="R27" s="44">
+      <c r="R27" s="40">
         <f t="shared" si="2"/>
         <v>29.677418350298769</v>
       </c>
-      <c r="S27" s="49">
+      <c r="S27" s="45">
         <f t="shared" si="3"/>
         <v>0.32847040730964078</v>
       </c>
-      <c r="T27" s="51">
+      <c r="T27" s="47">
         <v>29.677418350298769</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C28" s="37">
+      <c r="C28" s="33">
         <v>2042</v>
       </c>
       <c r="D28" s="17">
@@ -40659,16 +40658,16 @@
       <c r="I28" s="17">
         <v>14.283981000000001</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28">
         <v>15.726956186501802</v>
       </c>
-      <c r="K28" s="35">
+      <c r="K28">
         <v>21.928314663664509</v>
       </c>
-      <c r="L28" s="35">
+      <c r="L28">
         <v>33.264030890576777</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="34">
         <v>29.567022000000001</v>
       </c>
       <c r="O28">
@@ -40679,20 +40678,20 @@
         <f t="shared" si="0"/>
         <v>-2.5442238406898189E-3</v>
       </c>
-      <c r="R28" s="44">
+      <c r="R28" s="40">
         <f t="shared" si="2"/>
         <v>30.263903747100933</v>
       </c>
-      <c r="S28" s="49">
+      <c r="S28" s="45">
         <f t="shared" si="3"/>
         <v>0.35472365092990615</v>
       </c>
-      <c r="T28" s="51">
+      <c r="T28" s="47">
         <v>30.263903747100933</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C29" s="34">
+      <c r="C29" s="31">
         <v>2043</v>
       </c>
       <c r="D29" s="19">
@@ -40713,16 +40712,16 @@
       <c r="I29" s="19">
         <v>14.843826</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29">
         <v>15.920432485064548</v>
       </c>
-      <c r="K29" s="35">
+      <c r="K29">
         <v>22.202857303687022</v>
       </c>
-      <c r="L29" s="35">
+      <c r="L29">
         <v>33.474832800296412</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M29" s="32">
         <v>29.472882999999999</v>
       </c>
       <c r="O29">
@@ -40733,20 +40732,20 @@
         <f t="shared" si="0"/>
         <v>-3.1839188945036374E-3</v>
       </c>
-      <c r="R29" s="44">
+      <c r="R29" s="40">
         <f t="shared" si="2"/>
         <v>30.578589495970853</v>
       </c>
-      <c r="S29" s="49">
+      <c r="S29" s="45">
         <f t="shared" si="3"/>
         <v>0.36881014255263689</v>
       </c>
-      <c r="T29" s="51">
+      <c r="T29" s="47">
         <v>30.578589495970853</v>
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="37">
+      <c r="C30" s="33">
         <v>2044</v>
       </c>
       <c r="D30" s="17">
@@ -40767,16 +40766,16 @@
       <c r="I30" s="17">
         <v>15.073577</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30">
         <v>16.14669086999627</v>
       </c>
-      <c r="K30" s="35">
+      <c r="K30">
         <v>22.659845201238387</v>
       </c>
-      <c r="L30" s="35">
+      <c r="L30">
         <v>33.731148641222632</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="34">
         <v>29.460825</v>
       </c>
       <c r="O30">
@@ -40787,20 +40786,20 @@
         <f t="shared" si="0"/>
         <v>-4.0912183582439724E-4</v>
       </c>
-      <c r="R30" s="44">
+      <c r="R30" s="40">
         <f t="shared" si="2"/>
         <v>30.937873310956238</v>
       </c>
-      <c r="S30" s="49">
+      <c r="S30" s="45">
         <f t="shared" si="3"/>
         <v>0.38489300765901469</v>
       </c>
-      <c r="T30" s="51">
+      <c r="T30" s="47">
         <v>30.937873310956238</v>
       </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="34">
+      <c r="C31" s="31">
         <v>2045</v>
       </c>
       <c r="D31" s="19">
@@ -40821,16 +40820,16 @@
       <c r="I31" s="19">
         <v>15.086976</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31">
         <v>16.491298400506025</v>
       </c>
-      <c r="K31" s="35">
+      <c r="K31">
         <v>22.587926259499014</v>
       </c>
-      <c r="L31" s="35">
+      <c r="L31">
         <v>34.209951475657626</v>
       </c>
-      <c r="M31" s="36">
+      <c r="M31" s="32">
         <v>29.398705</v>
       </c>
       <c r="O31">
@@ -40841,20 +40840,20 @@
         <f t="shared" si="0"/>
         <v>-2.1085628118019174E-3</v>
       </c>
-      <c r="R31" s="44">
+      <c r="R31" s="40">
         <f t="shared" si="2"/>
         <v>31.585223494694176</v>
       </c>
-      <c r="S31" s="49">
+      <c r="S31" s="45">
         <f t="shared" si="3"/>
         <v>0.41387078302045049</v>
       </c>
-      <c r="T31" s="51">
+      <c r="T31" s="47">
         <v>31.585223494694176</v>
       </c>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="37">
+      <c r="C32" s="33">
         <v>2046</v>
       </c>
       <c r="D32" s="17">
@@ -40875,16 +40874,16 @@
       <c r="I32" s="17">
         <v>15.677839000000001</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32">
         <v>16.614746224078669</v>
       </c>
-      <c r="K32" s="35">
+      <c r="K32">
         <v>22.963514776245425</v>
       </c>
-      <c r="L32" s="35">
+      <c r="L32">
         <v>34.229603662030271</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="34">
         <v>29.313385</v>
       </c>
       <c r="O32">
@@ -40895,20 +40894,20 @@
         <f t="shared" si="0"/>
         <v>-2.9021686499454782E-3</v>
       </c>
-      <c r="R32" s="44">
+      <c r="R32" s="40">
         <f t="shared" si="2"/>
         <v>31.665200648668247</v>
       </c>
-      <c r="S32" s="49">
+      <c r="S32" s="45">
         <f t="shared" si="3"/>
         <v>0.41745085461095416</v>
       </c>
-      <c r="T32" s="51">
+      <c r="T32" s="47">
         <v>31.665200648668247</v>
       </c>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C33" s="34">
+      <c r="C33" s="31">
         <v>2047</v>
       </c>
       <c r="D33" s="19">
@@ -40929,16 +40928,16 @@
       <c r="I33" s="19">
         <v>15.942997</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33">
         <v>17.032564177747016</v>
       </c>
-      <c r="K33" s="35">
+      <c r="K33">
         <v>23.469701660568532</v>
       </c>
-      <c r="L33" s="35">
+      <c r="L33">
         <v>34.564691079740761</v>
       </c>
-      <c r="M33" s="36">
+      <c r="M33" s="32">
         <v>29.319500000000001</v>
       </c>
       <c r="O33">
@@ -40949,20 +40948,20 @@
         <f t="shared" si="0"/>
         <v>2.0860777422998568E-4</v>
       </c>
-      <c r="R33" s="44">
+      <c r="R33" s="40">
         <f t="shared" si="2"/>
         <v>32.309671618243542</v>
       </c>
-      <c r="S33" s="49">
+      <c r="S33" s="45">
         <f t="shared" si="3"/>
         <v>0.44629974575590486</v>
       </c>
-      <c r="T33" s="51">
+      <c r="T33" s="47">
         <v>32.309671618243542</v>
       </c>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C34" s="37">
+      <c r="C34" s="33">
         <v>2048</v>
       </c>
       <c r="D34" s="17">
@@ -40983,16 +40982,16 @@
       <c r="I34" s="17">
         <v>16.146730000000002</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34">
         <v>17.354044993811897</v>
       </c>
-      <c r="K34" s="35">
+      <c r="K34">
         <v>23.726725584013508</v>
       </c>
-      <c r="L34" s="35">
+      <c r="L34">
         <v>34.873048319051037</v>
       </c>
-      <c r="M34" s="38">
+      <c r="M34" s="34">
         <v>29.242495999999999</v>
       </c>
       <c r="O34">
@@ -41003,20 +41002,20 @@
         <f t="shared" si="0"/>
         <v>-2.6263749381810462E-3</v>
       </c>
-      <c r="R34" s="44">
+      <c r="R34" s="40">
         <f t="shared" si="2"/>
         <v>32.833415474840166</v>
       </c>
-      <c r="S34" s="49">
+      <c r="S34" s="45">
         <f t="shared" si="3"/>
         <v>0.46974444725541498</v>
       </c>
-      <c r="T34" s="51">
+      <c r="T34" s="47">
         <v>32.833415474840166</v>
       </c>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="34">
+      <c r="C35" s="31">
         <v>2049</v>
       </c>
       <c r="D35" s="19">
@@ -41037,16 +41036,16 @@
       <c r="I35" s="19">
         <v>16.344221000000001</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35">
         <v>17.615031873336019</v>
       </c>
-      <c r="K35" s="35">
+      <c r="K35">
         <v>24.321664508865748</v>
       </c>
-      <c r="L35" s="35">
+      <c r="L35">
         <v>35.089670801363731</v>
       </c>
-      <c r="M35" s="36">
+      <c r="M35" s="32">
         <v>29.110025</v>
       </c>
       <c r="O35">
@@ -41057,50 +41056,50 @@
         <f t="shared" si="0"/>
         <v>-4.5300852567440701E-3</v>
       </c>
-      <c r="R35" s="44">
+      <c r="R35" s="40">
         <f t="shared" si="2"/>
         <v>33.211941351195492</v>
       </c>
-      <c r="S35" s="49">
+      <c r="S35" s="45">
         <f t="shared" si="3"/>
         <v>0.48668865780646314</v>
       </c>
-      <c r="T35" s="51">
+      <c r="T35" s="47">
         <v>33.211941351195492</v>
       </c>
     </row>
     <row r="36" spans="3:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="39">
+      <c r="C36" s="35">
         <v>2050</v>
       </c>
-      <c r="D36" s="40">
+      <c r="D36" s="36">
         <v>27.305868</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="36">
         <v>21.858753</v>
       </c>
-      <c r="F36" s="40">
+      <c r="F36" s="36">
         <v>28.648949000000002</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="36">
         <v>6.0177839999999998</v>
       </c>
-      <c r="H36" s="40">
+      <c r="H36" s="36">
         <v>28.935759999999998</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="36">
         <v>15.920506</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J36" s="37">
         <v>17.793513868287572</v>
       </c>
-      <c r="K36" s="41">
+      <c r="K36" s="37">
         <v>25.480807768083309</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="37">
         <v>35.287696916088954</v>
       </c>
-      <c r="M36" s="42">
+      <c r="M36" s="38">
         <v>29.024152999999998</v>
       </c>
       <c r="O36">
@@ -41111,15 +41110,15 @@
         <f t="shared" si="0"/>
         <v>-2.9499115854418148E-3</v>
       </c>
-      <c r="R36" s="44">
+      <c r="R36" s="40">
         <f t="shared" si="2"/>
         <v>33.352427777055048</v>
       </c>
-      <c r="S36" s="49">
+      <c r="S36" s="45">
         <f t="shared" si="3"/>
         <v>0.49297734697680118</v>
       </c>
-      <c r="T36" s="51">
+      <c r="T36" s="47">
         <v>33.352427777055048</v>
       </c>
     </row>
@@ -41135,7 +41134,7 @@
       </c>
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.25">
-      <c r="T40" s="45">
+      <c r="T40" s="41">
         <f>+T39/T42</f>
         <v>22.339540412044375</v>
       </c>
